--- a/classfiers/chatty/svm/chatty-svm-sigmoid-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1855072463768115</v>
+        <v>0.9985569985569986</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1985507246376811</v>
+        <v>0.9771739130434783</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2827510917030567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2969432314410481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01746724890829695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1962439086133789</v>
+        <v>0.9951461823200954</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/chatty-svm-sigmoid-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9985569985569986</v>
+        <v>0.9903846153846154</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9771739130434783</v>
+        <v>0.8576923076923076</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.5478260869565217</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9729468599033817</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.2</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.26</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.9951461823200954</v>
+        <v>0.8471033073206986</v>
       </c>
     </row>
   </sheetData>
